--- a/diagram/计划表.xlsx
+++ b/diagram/计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7320" activeTab="1"/>
+    <workbookView windowWidth="28140" windowHeight="13130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>计划表</t>
   </si>
@@ -47,16 +47,40 @@
   <si>
     <t>序号</t>
   </si>
+  <si>
+    <t>计划开始时间</t>
+  </si>
+  <si>
+    <t>计划结束时间</t>
+  </si>
+  <si>
+    <t>计划签订总额（万元）</t>
+  </si>
+  <si>
+    <t>实际签订总额（万元）</t>
+  </si>
+  <si>
+    <t>签订完成率</t>
+  </si>
+  <si>
+    <t>计划收款总额（万元）</t>
+  </si>
+  <si>
+    <t>实际收款总额（万元）</t>
+  </si>
+  <si>
+    <t>收款完成率</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -88,9 +112,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +188,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -111,17 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,93 +235,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +618,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,11 +663,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,60 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -703,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,7 +1302,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1358,24 +1382,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:J23"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="24.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="23.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="21.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="20.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="16.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="15.3636363636364" customWidth="1"/>
+    <col min="4" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="11" width="24.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75"/>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,9 +1405,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="J2" s="2"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1396,290 +1416,312 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="J6" s="5"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="6">
         <v>4</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="J7" s="5"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="J8" s="5"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="J9" s="5"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="J10" s="5"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="6">
         <v>8</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="J11" s="5"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="J12" s="5"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="6">
         <v>10</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="J13" s="5"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="J14" s="5"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="6">
         <v>12</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="J15" s="5"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="6">
         <v>13</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="J16" s="5"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="6">
         <v>14</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="J17" s="5"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="J18" s="5"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="6">
         <v>16</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="J19" s="5"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="6">
         <v>17</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="J20" s="5"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="6">
         <v>18</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="J21" s="5"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="6">
         <v>19</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="J22" s="5"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="9">
         <v>20</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
